--- a/Sectors/UNIVERSE.xlsx
+++ b/Sectors/UNIVERSE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/SECTORS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/Finance/Sectors/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="304" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B8887C3-ABF8-4029-A8EB-E785C9F33D66}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="11_FE4855BF84DCCE436F107A399131F45B7AFB1D1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0968CA2-0C5A-4CAA-AE6F-5D62831AEB22}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="942" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="15" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>Boeing</t>
   </si>
@@ -78,9 +78,6 @@
     <t>TSM</t>
   </si>
   <si>
-    <t>Main</t>
-  </si>
-  <si>
     <t xml:space="preserve">Name </t>
   </si>
   <si>
@@ -319,6 +316,9 @@
   </si>
   <si>
     <t>MVO</t>
+  </si>
+  <si>
+    <t>main</t>
   </si>
 </sst>
 </file>
@@ -383,10 +383,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -706,52 +702,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1154F055-9477-4C92-9060-E640F9CD26AF}">
-  <dimension ref="B2:L29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <v>247</v>
@@ -763,7 +762,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -783,9 +782,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5">
         <v>402</v>
@@ -800,9 +799,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6">
         <v>212</v>
@@ -814,9 +813,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7">
         <v>178</v>
@@ -828,9 +827,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>666</v>
@@ -842,9 +841,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>501</v>
@@ -856,9 +855,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10">
         <v>331</v>
@@ -870,7 +869,7 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -884,9 +883,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>207</v>
@@ -898,9 +897,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>895</v>
@@ -912,9 +911,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>895</v>
@@ -926,9 +925,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>261</v>
@@ -940,9 +939,9 @@
         <v>45713</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16">
         <v>351</v>
@@ -956,7 +955,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17">
         <v>559</v>
@@ -970,7 +969,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18">
         <v>111</v>
@@ -984,7 +983,7 @@
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>169</v>
@@ -998,7 +997,7 @@
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>1036</v>
@@ -1012,7 +1011,7 @@
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>67</v>
@@ -1026,7 +1025,7 @@
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>460</v>
@@ -1040,7 +1039,7 @@
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>986</v>
@@ -1054,7 +1053,7 @@
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24">
         <v>5.14</v>
@@ -1068,7 +1067,7 @@
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>170</v>
@@ -1082,7 +1081,7 @@
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>164</v>
@@ -1096,7 +1095,7 @@
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27">
         <v>384</v>
@@ -1110,7 +1109,7 @@
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>204</v>
@@ -1124,7 +1123,7 @@
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29">
         <v>286</v>
@@ -1146,12 +1145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060610F2-25AD-4BC0-A6CA-A434A1FA863B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1161,57 +1164,57 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>350.2</v>
@@ -1222,10 +1225,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>558</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>312</v>
@@ -1250,10 +1253,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>567</v>
@@ -1264,10 +1267,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>535</v>
@@ -1278,10 +1281,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>74</v>
@@ -1292,10 +1295,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>188</v>
@@ -1303,10 +1306,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>161</v>
@@ -1314,10 +1317,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11">
         <v>85</v>
@@ -1325,10 +1328,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>138</v>
@@ -1336,10 +1339,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>22</v>
@@ -1347,18 +1350,18 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15">
         <v>590</v>
@@ -1366,10 +1369,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>98</v>
@@ -1377,10 +1380,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>27</v>
@@ -1388,10 +1391,10 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>142</v>
@@ -1399,10 +1402,10 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>72</v>
@@ -1410,58 +1413,58 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1471,212 +1474,215 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2055A649-B0B7-48F2-A75A-1EB9A4CD43EF}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>+A2+1</f>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>+B3+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">+A3+1</f>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B33" si="0">+B4+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -1693,7 +1699,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1702,55 +1714,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F68C87-92BF-444E-A71E-C391AB268FDA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487170C1-F661-40FC-8897-DC37D59D70ED}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A081E7C8-D402-4303-9854-83B98CBD001A}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1766,7 +1796,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1778,7 +1814,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1790,7 +1832,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1802,7 +1850,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1811,12 +1865,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF80AE12-03A9-43A6-923E-927AE44C40BF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1825,12 +1883,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2F7DF8-B6FE-438B-9ED5-7A667CB0C63D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>